--- a/databases/Smartphone Camera Sensoren Physik.xlsx
+++ b/databases/Smartphone Camera Sensoren Physik.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smaile.LUXOFT\source\repos\2025_compareCamera\smartphoneCompareCamera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smaile.LUXOFT\source\repos\2025_compareCamera\smartphoneCompareCamera\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EDA51B-B6AC-464F-ABBE-7E450D249C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9212FC4-25BA-4D11-B44F-67C6C80B676F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4387,7 +4387,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5226,6 +5226,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="8693a6f0-2985-43e0-a9a8-162598fae3af" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F1E0246E3061C54F8458EBBE0C0F398F" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7c6f554bbf0205498782dff810431014">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b8c1a1db-4749-41cb-9a75-3b090167f9a8" xmlns:ns4="8693a6f0-2985-43e0-a9a8-162598fae3af" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b56026a517fe72c323f2dbb367b76ca8" ns3:_="" ns4:_="">
     <xsd:import namespace="b8c1a1db-4749-41cb-9a75-3b090167f9a8"/>
@@ -5464,38 +5481,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="8693a6f0-2985-43e0-a9a8-162598fae3af" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22E950AC-A418-46BC-9530-A66FE778E6F8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4E21EE-76DA-46D2-AE17-0A2998466252}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b8c1a1db-4749-41cb-9a75-3b090167f9a8"/>
-    <ds:schemaRef ds:uri="8693a6f0-2985-43e0-a9a8-162598fae3af"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5518,9 +5507,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4E21EE-76DA-46D2-AE17-0A2998466252}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22E950AC-A418-46BC-9530-A66FE778E6F8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b8c1a1db-4749-41cb-9a75-3b090167f9a8"/>
+    <ds:schemaRef ds:uri="8693a6f0-2985-43e0-a9a8-162598fae3af"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/databases/Smartphone Camera Sensoren Physik.xlsx
+++ b/databases/Smartphone Camera Sensoren Physik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smaile.LUXOFT\source\repos\2025_compareCamera\smartphoneCompareCamera\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9212FC4-25BA-4D11-B44F-67C6C80B676F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D18BEC-C79E-428B-963C-166F914ED64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="226">
   <si>
     <t>Größe</t>
   </si>
@@ -705,6 +705,15 @@
   </si>
   <si>
     <t>IMX809</t>
+  </si>
+  <si>
+    <t>OIS</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Nein</t>
   </si>
 </sst>
 </file>
@@ -4384,36 +4393,36 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="21" width="7.33203125" customWidth="1"/>
+    <col min="2" max="22" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>180</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>181</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>182</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>183</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>185</v>
       </c>
@@ -4424,46 +4433,49 @@
         <v>187</v>
       </c>
       <c r="D2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" t="s">
         <v>188</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>186</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>187</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>188</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>186</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>187</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>188</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>186</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>187</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>188</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>186</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>187</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>189</v>
       </c>
@@ -4474,40 +4486,43 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="D3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E3" t="s">
         <v>122</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>35</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1.69</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>122</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>85</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2.27</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>190</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>24</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>2.5</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>197</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>192</v>
       </c>
@@ -4518,37 +4533,40 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E4" t="s">
         <v>193</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>23</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1.57</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>122</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>85</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2.6</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>190</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>20</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>2</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>194</v>
       </c>
@@ -4558,38 +4576,38 @@
       <c r="C5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>195</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>23</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1.75</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>120</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>85</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2.6</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>190</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>24</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>2.4500000000000002</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>196</v>
       </c>
@@ -4599,47 +4617,47 @@
       <c r="C6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>197</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>23</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1.6</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>120</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>70</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1.8</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>143</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>100</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2.6</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>190</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>21</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>2</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>199</v>
       </c>
@@ -4649,38 +4667,38 @@
       <c r="C7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>161</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>24</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1.95</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>102</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>120</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>161</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>27</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -4690,50 +4708,50 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>197</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>23</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1.8</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>120</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>70</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>2.1</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>128</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>135</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>3.1</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>195</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>21</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>2.4</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>222</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>203</v>
       </c>
@@ -4743,47 +4761,47 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>195</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>23</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1.8</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>120</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>65</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>2.6</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>164</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>135</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>4.3</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>143</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>21</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>2.4</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>204</v>
       </c>
@@ -4793,47 +4811,47 @@
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>197</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>23</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1.6</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>125</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>73</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>2.6</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>195</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>135</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>4.3</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>143</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>21</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>2.4</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>205</v>
       </c>
@@ -4843,47 +4861,47 @@
       <c r="C11">
         <v>1.9</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>117</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>24</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1.7</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>206</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>67</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>2.4</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>151</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>111</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>3.4</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>145</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>26</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>208</v>
       </c>
@@ -4893,38 +4911,38 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>197</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>23</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1.6</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>123</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>73</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>2.6</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>195</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>21</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>2.4</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>209</v>
       </c>
@@ -4934,55 +4952,55 @@
       <c r="C13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>135</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>24</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1.8</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>210</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>120</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>2.8</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>137</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>23</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>1.9</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>211</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>143</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>68</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>143</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>212</v>
       </c>
@@ -4992,38 +5010,38 @@
       <c r="C15">
         <v>1.7</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>143</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>25</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1.7</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>68</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>113</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>2.8</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>143</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>17</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>213</v>
       </c>
@@ -5033,38 +5051,38 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>168</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>24</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>177</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>214</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>72</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>2.6</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>215</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>21</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>2</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>216</v>
       </c>
@@ -5074,29 +5092,29 @@
       <c r="C17">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>24</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>23</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>176</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>133</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>90</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>2.1</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>2.4</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>217</v>
       </c>
@@ -5106,38 +5124,38 @@
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>82</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>23</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>214</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>72</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>2.4</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>171</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>21</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>1.9</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>219</v>
       </c>
@@ -5147,38 +5165,38 @@
       <c r="C19">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>163</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>24</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1.9</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>142</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>178</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>179</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>156</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>24</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>2</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>220</v>
       </c>
@@ -5188,34 +5206,34 @@
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>221</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>35</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>176</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>139</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>70</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>2.48</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>171</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>24</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>2.5</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5226,23 +5244,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="8693a6f0-2985-43e0-a9a8-162598fae3af" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F1E0246E3061C54F8458EBBE0C0F398F" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7c6f554bbf0205498782dff810431014">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b8c1a1db-4749-41cb-9a75-3b090167f9a8" xmlns:ns4="8693a6f0-2985-43e0-a9a8-162598fae3af" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b56026a517fe72c323f2dbb367b76ca8" ns3:_="" ns4:_="">
     <xsd:import namespace="b8c1a1db-4749-41cb-9a75-3b090167f9a8"/>
@@ -5481,10 +5482,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="8693a6f0-2985-43e0-a9a8-162598fae3af" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4E21EE-76DA-46D2-AE17-0A2998466252}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22E950AC-A418-46BC-9530-A66FE778E6F8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b8c1a1db-4749-41cb-9a75-3b090167f9a8"/>
+    <ds:schemaRef ds:uri="8693a6f0-2985-43e0-a9a8-162598fae3af"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5507,20 +5536,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22E950AC-A418-46BC-9530-A66FE778E6F8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4E21EE-76DA-46D2-AE17-0A2998466252}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b8c1a1db-4749-41cb-9a75-3b090167f9a8"/>
-    <ds:schemaRef ds:uri="8693a6f0-2985-43e0-a9a8-162598fae3af"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>